--- a/Resultater/arcingVoltage_400A_d4.xlsx
+++ b/Resultater/arcingVoltage_400A_d4.xlsx
@@ -93,6 +93,7 @@
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="nb-NO"/>
   <c:chart>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
@@ -101,16 +102,11 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:strRef>
-              <c:f>'Ark1'!$A$1:$A$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>p=0,6 VOLTAGE</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>Upstream over-pressure: 0.6</c:v>
           </c:tx>
+          <c:spPr>
+            <a:ln w="19050"/>
+          </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
@@ -3422,16 +3418,11 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:strRef>
-              <c:f>'Ark1'!$B$1:$B$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>p=0,8 VOLTAGE</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>Upstream over-pressure: 0.8</c:v>
           </c:tx>
+          <c:spPr>
+            <a:ln w="19050"/>
+          </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
@@ -6743,16 +6734,11 @@
           <c:idx val="2"/>
           <c:order val="2"/>
           <c:tx>
-            <c:strRef>
-              <c:f>'Ark1'!$C$1:$C$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>p=1 VOLTAGE</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>Upstream over-pressure: 1.0</c:v>
           </c:tx>
+          <c:spPr>
+            <a:ln w="19050"/>
+          </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
@@ -10064,16 +10050,11 @@
           <c:idx val="3"/>
           <c:order val="3"/>
           <c:tx>
-            <c:strRef>
-              <c:f>'Ark1'!$D$1:$D$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>p=1,4 VOLTAGE</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>Upstream over-pressure: 1.4</c:v>
           </c:tx>
+          <c:spPr>
+            <a:ln w="19050"/>
+          </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
@@ -13385,16 +13366,11 @@
           <c:idx val="4"/>
           <c:order val="4"/>
           <c:tx>
-            <c:strRef>
-              <c:f>'Ark1'!$E$1:$E$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>p=1.6 VOLTAGE</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>Upstream over-pressure: 1.6</c:v>
           </c:tx>
+          <c:spPr>
+            <a:ln w="19050"/>
+          </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
@@ -16706,16 +16682,11 @@
           <c:idx val="5"/>
           <c:order val="5"/>
           <c:tx>
-            <c:strRef>
-              <c:f>'Ark1'!$F$1:$F$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>p=2,0 VOLTAGE</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>Upstream over-pressure: 2.0</c:v>
           </c:tx>
+          <c:spPr>
+            <a:ln w="19050"/>
+          </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
@@ -20023,48 +19994,70 @@
             </c:numRef>
           </c:val>
         </c:ser>
+        <c:dLbls/>
         <c:marker val="1"/>
-        <c:axId val="151235584"/>
-        <c:axId val="151245568"/>
+        <c:axId val="79966976"/>
+        <c:axId val="79968512"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="151235584"/>
+        <c:axId val="79966976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="1"/>
         <c:axPos val="b"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="151245568"/>
-        <c:crosses val="autoZero"/>
+        <c:majorTickMark val="none"/>
+        <c:tickLblPos val="none"/>
+        <c:crossAx val="79968512"/>
+        <c:crossesAt val="0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:tickLblSkip val="1"/>
+        <c:tickMarkSkip val="31999"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="151245568"/>
+        <c:axId val="79968512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="151235584"/>
+        <c:spPr>
+          <a:ln w="9525">
+            <a:noFill/>
+          </a:ln>
+        </c:spPr>
+        <c:crossAx val="79966976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
+        <c:majorUnit val="0.2"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout/>
+      <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="3.9307392401192562E-2"/>
+          <c:y val="0.90993173935843963"/>
+          <c:w val="0.94856957928802588"/>
+          <c:h val="7.6779226414275009E-2"/>
+        </c:manualLayout>
+      </c:layout>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.78740157499999996" l="0.70000000000000007" r="0.70000000000000007" t="0.78740157499999996" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
+  <c:userShapes r:id="rId1"/>
 </c:chartSpace>
 </file>
 
@@ -20080,8 +20073,8 @@
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>628650</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>123824</xdr:rowOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -20101,6 +20094,62 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.04175</cdr:x>
+      <cdr:y>0.42797</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.98835</cdr:x>
+      <cdr:y>0.42857</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="3" name="Rett linje 2"/>
+        <cdr:cNvSpPr/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="409574" y="2454018"/>
+          <a:ext cx="9286876" cy="3432"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="12700">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </cdr:style>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:endParaRPr lang="nb-NO"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -20388,10 +20437,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W1722"/>
+  <dimension ref="A1:V1722"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>

--- a/Resultater/arcingVoltage_400A_d4.xlsx
+++ b/Resultater/arcingVoltage_400A_d4.xlsx
@@ -20006,6 +20006,7 @@
         </c:scaling>
         <c:delete val="1"/>
         <c:axPos val="b"/>
+        <c:majorGridlines/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="none"/>
         <c:crossAx val="79968512"/>
@@ -20023,6 +20024,24 @@
         </c:scaling>
         <c:axPos val="l"/>
         <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="nb-NO"/>
+                  <a:t>Voltage [kV]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -20071,8 +20090,8 @@
       <xdr:rowOff>114299</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>628650</xdr:colOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
       <xdr:row>34</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
@@ -20100,12 +20119,12 @@
 <c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.04175</cdr:x>
-      <cdr:y>0.42797</cdr:y>
+      <cdr:x>0.06796</cdr:x>
+      <cdr:y>0.42857</cdr:y>
     </cdr:from>
     <cdr:to>
       <cdr:x>0.98835</cdr:x>
-      <cdr:y>0.42857</cdr:y>
+      <cdr:y>0.43023</cdr:y>
     </cdr:to>
     <cdr:sp macro="" textlink="">
       <cdr:nvSpPr>
@@ -20113,9 +20132,9 @@
         <cdr:cNvSpPr/>
       </cdr:nvSpPr>
       <cdr:spPr>
-        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="409574" y="2454018"/>
-          <a:ext cx="9286876" cy="3432"/>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" flipV="1">
+          <a:off x="666750" y="2457450"/>
+          <a:ext cx="9029700" cy="9526"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="line">
           <a:avLst/>
@@ -20439,8 +20458,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:V1722"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
